--- a/pred_ohlcv/54_21/2020-01-12 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 WAVES ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-25041.83722733001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-25023.23592733001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-25043.11662733001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-25040.97816403001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-24980.77476403001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-13819.32886321002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-8218.163740270018</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8224.944140270018</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9995.741640270018</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9680.131697240018</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8523.825897240018</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8040.074697240018</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13150.79239724002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13050.79239724002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-12950.79239724002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-12906.39239724002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-12616.39239724002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12200.17239724002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-10076.24619724002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20222.97339400002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12647.55369400002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4559.450904100024</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4656.061704100024</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4385.270977810023</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3553.743477810023</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2216.759577810023</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2277.720077810023</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3772.510177810023</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2941.896272250023</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2940.397525390023</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4320.736976480024</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 WAVES ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-25043.11662733001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-24231.83666403002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-24441.83666403002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-23335.22516403002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23335.22516403002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-22982.77406403002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-22946.33636403002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-22947.63226403002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-22607.61876403002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-20486.09346403002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-19249.51436403002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-19088.33546403002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-13819.32886321002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-8218.163740270018</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8224.944140270018</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9995.741640270018</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9680.131697240018</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8523.825897240018</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8040.074697240018</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13150.79239724002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13050.79239724002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-12950.79239724002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-12906.39239724002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-12616.39239724002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12200.17239724002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-10076.24619724002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20222.97339400002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12647.55369400002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4385.270977810023</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3553.743477810023</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2216.759577810023</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2277.720077810023</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3772.510177810023</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2941.896272250023</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2940.397525390023</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4320.736976480024</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
